--- a/BDD/ANTAGENE-F1016-FDC70-Regime_Chamois-12S/ANTAGENE-F1016-FDC70-Regime_Chamois-12S-seuil_100-100-100.xlsx
+++ b/BDD/ANTAGENE-F1016-FDC70-Regime_Chamois-12S/ANTAGENE-F1016-FDC70-Regime_Chamois-12S-seuil_100-100-100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ANCIEN-SERVEUR/Arwen_2019/Biodiversité/Projets_en_cours/F1016-P-FDC70-88-90-Étude du régime alimentaire du Chamois_1ier lot /05-Résultats_finaux_Antagene/12S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SHARED/Git_Projects/Regime_alimentaire_chamois/BDD/ANTAGENE-F1016-FDC70-Regime_Chamois-12S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8063641-759E-9E46-9F90-2F8B69E535EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB846033-5FC9-1347-B415-9F160C8D2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Occurrences seuil" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="477">
   <si>
     <t>Projet</t>
   </si>
@@ -1100,6 +1100,360 @@
   </si>
   <si>
     <t>FAMILLES</t>
+  </si>
+  <si>
+    <t>48.0473880</t>
+  </si>
+  <si>
+    <t>7.0124206</t>
+  </si>
+  <si>
+    <t>48.040674</t>
+  </si>
+  <si>
+    <t>7.014965</t>
+  </si>
+  <si>
+    <t>48.040546</t>
+  </si>
+  <si>
+    <t>7.016056</t>
+  </si>
+  <si>
+    <t>40.042</t>
+  </si>
+  <si>
+    <t>7.010</t>
+  </si>
+  <si>
+    <t>48.040583</t>
+  </si>
+  <si>
+    <t>7.014822</t>
+  </si>
+  <si>
+    <t>40.045</t>
+  </si>
+  <si>
+    <t>7.012</t>
+  </si>
+  <si>
+    <t>48.0474369</t>
+  </si>
+  <si>
+    <t>7.0124846</t>
+  </si>
+  <si>
+    <t>48.0462514</t>
+  </si>
+  <si>
+    <t>7.0146294</t>
+  </si>
+  <si>
+    <t>48.041868</t>
+  </si>
+  <si>
+    <t>7.014133</t>
+  </si>
+  <si>
+    <t>48.0466115</t>
+  </si>
+  <si>
+    <t>7.0138140</t>
+  </si>
+  <si>
+    <t>48.039393</t>
+  </si>
+  <si>
+    <t>7.014868</t>
+  </si>
+  <si>
+    <t>47.799635</t>
+  </si>
+  <si>
+    <t>6.776774</t>
+  </si>
+  <si>
+    <t>6.776521</t>
+  </si>
+  <si>
+    <t>47.827568</t>
+  </si>
+  <si>
+    <t>6.801382</t>
+  </si>
+  <si>
+    <t>47.827587</t>
+  </si>
+  <si>
+    <t>6.801417</t>
+  </si>
+  <si>
+    <t>47.827686</t>
+  </si>
+  <si>
+    <t>6.800890</t>
+  </si>
+  <si>
+    <t>47.827687</t>
+  </si>
+  <si>
+    <t>6.801011</t>
+  </si>
+  <si>
+    <t>47.827365</t>
+  </si>
+  <si>
+    <t>6.801415</t>
+  </si>
+  <si>
+    <t>47.827049</t>
+  </si>
+  <si>
+    <t>6.800760</t>
+  </si>
+  <si>
+    <t>47.828742</t>
+  </si>
+  <si>
+    <t>6.800982</t>
+  </si>
+  <si>
+    <t>47.831759</t>
+  </si>
+  <si>
+    <t>6.804713</t>
+  </si>
+  <si>
+    <t>47.3456</t>
+  </si>
+  <si>
+    <t>6.5916</t>
+  </si>
+  <si>
+    <t>47.4649</t>
+  </si>
+  <si>
+    <t>6.484</t>
+  </si>
+  <si>
+    <t>47.4558</t>
+  </si>
+  <si>
+    <t>6.4926</t>
+  </si>
+  <si>
+    <t>6.486</t>
+  </si>
+  <si>
+    <t>47.3455</t>
+  </si>
+  <si>
+    <t>6.5840</t>
+  </si>
+  <si>
+    <t>47.3839</t>
+  </si>
+  <si>
+    <t>6.5153</t>
+  </si>
+  <si>
+    <t>47.3943</t>
+  </si>
+  <si>
+    <t>6.4425</t>
+  </si>
+  <si>
+    <t>47.860310</t>
+  </si>
+  <si>
+    <t>6.915287</t>
+  </si>
+  <si>
+    <t>47.860348</t>
+  </si>
+  <si>
+    <t>6.915299</t>
+  </si>
+  <si>
+    <t>47.821537</t>
+  </si>
+  <si>
+    <t>6.846040</t>
+  </si>
+  <si>
+    <t>47.819441</t>
+  </si>
+  <si>
+    <t>6.944499</t>
+  </si>
+  <si>
+    <t>47.819953</t>
+  </si>
+  <si>
+    <t>6.844952</t>
+  </si>
+  <si>
+    <t>47.820019</t>
+  </si>
+  <si>
+    <t>6.844916</t>
+  </si>
+  <si>
+    <t>47.819067</t>
+  </si>
+  <si>
+    <t>6.844972</t>
+  </si>
+  <si>
+    <t>47.819009</t>
+  </si>
+  <si>
+    <t>6.844677</t>
+  </si>
+  <si>
+    <t>47.819808</t>
+  </si>
+  <si>
+    <t>6.845431</t>
+  </si>
+  <si>
+    <t>47.774217</t>
+  </si>
+  <si>
+    <t>6.800992</t>
+  </si>
+  <si>
+    <t>47.772787</t>
+  </si>
+  <si>
+    <t>6.798244</t>
+  </si>
+  <si>
+    <t>47.773048</t>
+  </si>
+  <si>
+    <t>6.798268</t>
+  </si>
+  <si>
+    <t>47.4648</t>
+  </si>
+  <si>
+    <t>6.4759</t>
+  </si>
+  <si>
+    <t>47.774273</t>
+  </si>
+  <si>
+    <t>6.800091</t>
+  </si>
+  <si>
+    <t>47.4647</t>
+  </si>
+  <si>
+    <t>6.4758</t>
+  </si>
+  <si>
+    <t>47.4654</t>
+  </si>
+  <si>
+    <t>6.483</t>
+  </si>
+  <si>
+    <t>47.774570</t>
+  </si>
+  <si>
+    <t>6.800083</t>
+  </si>
+  <si>
+    <t>47.4644</t>
+  </si>
+  <si>
+    <t>6.4829</t>
+  </si>
+  <si>
+    <t>47.4253</t>
+  </si>
+  <si>
+    <t>6.482</t>
+  </si>
+  <si>
+    <t>47.7995315</t>
+  </si>
+  <si>
+    <t>6.7766779</t>
+  </si>
+  <si>
+    <t>47.7996070</t>
+  </si>
+  <si>
+    <t>6.7765052</t>
+  </si>
+  <si>
+    <t>47.827839</t>
+  </si>
+  <si>
+    <t>6.801317</t>
+  </si>
+  <si>
+    <t>47.3530</t>
+  </si>
+  <si>
+    <t>6.5720</t>
+  </si>
+  <si>
+    <t>47.3911</t>
+  </si>
+  <si>
+    <t>6.5148</t>
+  </si>
+  <si>
+    <t>47.4019</t>
+  </si>
+  <si>
+    <t>6.5031</t>
+  </si>
+  <si>
+    <t>47.4650</t>
+  </si>
+  <si>
+    <t>47.860338</t>
+  </si>
+  <si>
+    <t>6.915295</t>
+  </si>
+  <si>
+    <t>47.860917</t>
+  </si>
+  <si>
+    <t>6.915077</t>
+  </si>
+  <si>
+    <t>47.832251</t>
+  </si>
+  <si>
+    <t>6.804200</t>
+  </si>
+  <si>
+    <t>47.832172</t>
+  </si>
+  <si>
+    <t>6.804669</t>
+  </si>
+  <si>
+    <t>47.774176</t>
+  </si>
+  <si>
+    <t>47.772914</t>
+  </si>
+  <si>
+    <t>6.799379</t>
+  </si>
+  <si>
+    <t>47.774491</t>
+  </si>
+  <si>
+    <t>6.800491</t>
   </si>
 </sst>
 </file>
@@ -1493,16 +1847,16 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1959,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2138,17 +2492,17 @@
       <c r="Y2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z2" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="55" x14ac:dyDescent="0.2">
@@ -2267,10 +2621,10 @@
         <v>45848</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>26</v>
@@ -2370,10 +2724,10 @@
         <v>45842</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>26</v>
@@ -2473,10 +2827,10 @@
         <v>45842</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>26</v>
@@ -2576,10 +2930,10 @@
         <v>45882</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>26</v>
@@ -2679,10 +3033,10 @@
         <v>45842</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>26</v>
@@ -2782,10 +3136,10 @@
         <v>45882</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>26</v>
@@ -2885,10 +3239,10 @@
         <v>45848</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>371</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>26</v>
@@ -2988,10 +3342,10 @@
         <v>45882</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>26</v>
@@ -3091,10 +3445,10 @@
         <v>45842</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>375</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>54</v>
+        <v>376</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>26</v>
@@ -3194,10 +3548,10 @@
         <v>45882</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>26</v>
@@ -3297,10 +3651,10 @@
         <v>45842</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>26</v>
@@ -3811,8 +4165,12 @@
       <c r="C19" s="50">
         <v>45888</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
@@ -4215,8 +4573,12 @@
       <c r="C23" s="50">
         <v>45861</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
@@ -4620,10 +4982,10 @@
         <v>45888</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>64</v>
@@ -5238,10 +5600,10 @@
         <v>45888</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>64</v>
@@ -5547,10 +5909,10 @@
         <v>45888</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>64</v>
@@ -5650,10 +6012,10 @@
         <v>45847</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>127</v>
+        <v>385</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>64</v>
@@ -5753,10 +6115,10 @@
         <v>45847</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>132</v>
+        <v>387</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>64</v>
@@ -5858,10 +6220,10 @@
         <v>45879</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>64</v>
@@ -5961,10 +6323,10 @@
         <v>45847</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>64</v>
@@ -6064,10 +6426,10 @@
         <v>45847</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>141</v>
+        <v>392</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>64</v>
@@ -6167,10 +6529,10 @@
         <v>45847</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>64</v>
@@ -6272,10 +6634,10 @@
         <v>45879</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>149</v>
+        <v>397</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>64</v>
@@ -6375,10 +6737,10 @@
         <v>45884</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>152</v>
+        <v>399</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>64</v>
@@ -6478,10 +6840,10 @@
         <v>45861</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>161</v>
@@ -6583,10 +6945,10 @@
         <v>45861</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -6688,10 +7050,10 @@
         <v>45890</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>172</v>
@@ -6793,10 +7155,10 @@
         <v>45890</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>64</v>
@@ -6896,10 +7258,10 @@
         <v>45874</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>193</v>
@@ -7001,10 +7363,10 @@
         <v>45890</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>64</v>
@@ -7104,10 +7466,10 @@
         <v>45890</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -7207,10 +7569,10 @@
         <v>45861</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>200</v>
+        <v>411</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>64</v>
@@ -7310,10 +7672,10 @@
         <v>45886</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>204</v>
+        <v>413</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>206</v>
@@ -7413,10 +7775,10 @@
         <v>45886</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>220</v>
+        <v>415</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>221</v>
+        <v>416</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>26</v>
@@ -7516,10 +7878,10 @@
         <v>45884</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -7621,10 +7983,10 @@
         <v>45884</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>232</v>
+        <v>419</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -7726,10 +8088,10 @@
         <v>45884</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>64</v>
@@ -7831,10 +8193,10 @@
         <v>45847</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>64</v>
@@ -7936,10 +8298,10 @@
         <v>45847</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>242</v>
+        <v>423</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>64</v>
@@ -8039,10 +8401,10 @@
         <v>45847</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>245</v>
+        <v>425</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>64</v>
@@ -8142,10 +8504,10 @@
         <v>45847</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>64</v>
@@ -8245,10 +8607,10 @@
         <v>45884</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>251</v>
+        <v>429</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>161</v>
@@ -8348,10 +8710,10 @@
         <v>45847</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>64</v>
@@ -8453,10 +8815,10 @@
         <v>45874</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>257</v>
+        <v>432</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>172</v>
@@ -8558,10 +8920,10 @@
         <v>45874</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>266</v>
+        <v>433</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>267</v>
+        <v>434</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>193</v>
@@ -8663,10 +9025,10 @@
         <v>45874</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>270</v>
+        <v>436</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>172</v>
@@ -8768,10 +9130,10 @@
         <v>45854</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>26</v>
@@ -8871,10 +9233,10 @@
         <v>45874</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>275</v>
+        <v>439</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>193</v>
@@ -8976,10 +9338,10 @@
         <v>45854</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>278</v>
+        <v>441</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>279</v>
+        <v>442</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>26</v>
@@ -9079,10 +9441,10 @@
         <v>45854</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>282</v>
+        <v>443</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>64</v>
@@ -9182,10 +9544,10 @@
         <v>45874</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>193</v>
@@ -9287,10 +9649,10 @@
         <v>45854</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>172</v>
@@ -9390,10 +9752,10 @@
         <v>45854</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>26</v>
@@ -9493,10 +9855,10 @@
         <v>45854</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>296</v>
+        <v>450</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>64</v>
@@ -9596,10 +9958,10 @@
         <v>45861</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>64</v>
@@ -9699,10 +10061,10 @@
         <v>45861</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>108</v>
+        <v>453</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>109</v>
+        <v>454</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>64</v>
@@ -9907,10 +10269,10 @@
         <v>45861</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>64</v>
@@ -10010,10 +10372,10 @@
         <v>45861</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>64</v>
@@ -10113,10 +10475,10 @@
         <v>45847</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>154</v>
+        <v>455</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>155</v>
+        <v>456</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>64</v>
@@ -10218,10 +10580,10 @@
         <v>45861</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>178</v>
+        <v>457</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>179</v>
+        <v>458</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>64</v>
@@ -10321,10 +10683,10 @@
         <v>45861</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>182</v>
+        <v>460</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>172</v>
@@ -10426,10 +10788,10 @@
         <v>45861</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>64</v>
@@ -10531,10 +10893,10 @@
         <v>45861</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>64</v>
@@ -10634,10 +10996,10 @@
         <v>45890</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>189</v>
+        <v>463</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>172</v>
@@ -10737,10 +11099,10 @@
         <v>45847</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>211</v>
+        <v>465</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>206</v>
@@ -10840,10 +11202,10 @@
         <v>45847</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>213</v>
+        <v>466</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>214</v>
+        <v>467</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>26</v>
@@ -10943,10 +11305,10 @@
         <v>45885</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>217</v>
+        <v>468</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>64</v>
@@ -11046,10 +11408,10 @@
         <v>45885</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>224</v>
+        <v>471</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>64</v>
@@ -11149,7 +11511,7 @@
         <v>45874</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>261</v>
@@ -11254,10 +11616,10 @@
         <v>45874</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>263</v>
+        <v>473</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>26</v>
@@ -11359,10 +11721,10 @@
         <v>45854</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>273</v>
+        <v>438</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>26</v>
@@ -11462,10 +11824,10 @@
         <v>45874</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>288</v>
+        <v>475</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="F93" s="18" t="s">
         <v>193</v>
@@ -11639,7 +12001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AI93"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -11821,17 +12183,17 @@
       <c r="Y2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z2" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="55" x14ac:dyDescent="0.2">
@@ -21686,7 +22048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B30B60E-F29E-F44F-85F1-6C8A94DB568A}">
   <dimension ref="A2:AF121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
@@ -21696,124 +22058,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="24" x14ac:dyDescent="0.2">
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
     </row>
     <row r="25" spans="1:1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
     </row>
     <row r="74" spans="1:1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="51" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
-      <c r="V100" s="54"/>
-      <c r="W100" s="54"/>
-      <c r="X100" s="54"/>
-      <c r="Y100" s="54"/>
-      <c r="Z100" s="54"/>
-      <c r="AA100" s="54"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="54"/>
-      <c r="AD100" s="54"/>
-      <c r="AE100" s="54"/>
-      <c r="AF100" s="54"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="52"/>
+      <c r="P100" s="52"/>
+      <c r="Q100" s="52"/>
+      <c r="R100" s="52"/>
+      <c r="S100" s="52"/>
+      <c r="T100" s="52"/>
+      <c r="U100" s="52"/>
+      <c r="V100" s="52"/>
+      <c r="W100" s="52"/>
+      <c r="X100" s="52"/>
+      <c r="Y100" s="52"/>
+      <c r="Z100" s="52"/>
+      <c r="AA100" s="52"/>
+      <c r="AB100" s="52"/>
+      <c r="AC100" s="52"/>
+      <c r="AD100" s="52"/>
+      <c r="AE100" s="52"/>
+      <c r="AF100" s="52"/>
     </row>
     <row r="121" spans="1:1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="51" t="s">
         <v>358</v>
       </c>
     </row>
